--- a/Config/Bug_Check.xlsx
+++ b/Config/Bug_Check.xlsx
@@ -1,51 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jnj-my.sharepoint.com/personal/praj7_its_jnj_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{286F5580-6786-4B2C-AB57-88D975904D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A747F-F801-4FCE-A2E4-F737BD2CAF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19100" windowHeight="9020" xr2:uid="{15E3E94D-FD87-4E30-97CE-819A18BE76C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>JIRA ID</t>
+  </si>
+  <si>
+    <t>https://jira.jnj.com/browse/AGQP-293</t>
+  </si>
+  <si>
+    <t>https://jira.jnj.com/browse/AGQP-294</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Affected Version</t>
+  </si>
+  <si>
+    <t>Fix Version</t>
+  </si>
+  <si>
+    <t>Story Point</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Approval Workflow</t>
+  </si>
+  <si>
+    <t>Asignee/Reporter</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Update the type as Story</t>
+  </si>
+  <si>
+    <t>Add the Story Point</t>
+  </si>
+  <si>
+    <t>Add the acceptance criteria</t>
+  </si>
+  <si>
+    <t>Assignee/Reporter Cant be Same</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +98,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,13 +136,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,24 +479,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60E3D0D-C016-4D68-8181-56A0692BCE3D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Config/Bug_Check.xlsx
+++ b/Config/Bug_Check.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A747F-F801-4FCE-A2E4-F737BD2CAF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC67F8-21DA-4C13-BAD0-1DEB2232B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
-    <sheet name="Result" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>JIRA ID</t>
   </si>
@@ -32,58 +31,19 @@
     <t>https://jira.jnj.com/browse/AGQP-294</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Affected Version</t>
-  </si>
-  <si>
-    <t>Fix Version</t>
-  </si>
-  <si>
-    <t>Story Point</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Approval Workflow</t>
-  </si>
-  <si>
-    <t>Asignee/Reporter</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Update the type as Story</t>
-  </si>
-  <si>
-    <t>Add the Story Point</t>
-  </si>
-  <si>
-    <t>Add the acceptance criteria</t>
-  </si>
-  <si>
-    <t>Assignee/Reporter Cant be Same</t>
+    <t>https://jira.jnj.com/browse/AGQP-282</t>
+  </si>
+  <si>
+    <t>https://jira.jnj.com/browse/AGQP-283</t>
+  </si>
+  <si>
+    <t>https://jira.jnj.com/browse/AGQP-284</t>
+  </si>
+  <si>
+    <t>https://jira.jnj.com/browse/AGQP-285</t>
+  </si>
+  <si>
+    <t>https://jira.jnj.com/browse/JCVZ-1049</t>
   </si>
 </sst>
 </file>
@@ -107,24 +67,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,11 +88,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,147 +452,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Config/Bug_Check.xlsx
+++ b/Config/Bug_Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC67F8-21DA-4C13-BAD0-1DEB2232B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37F7475-7D75-4B8F-BCBA-DDB8883F7D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/Bug_Check.xlsx
+++ b/Config/Bug_Check.xlsx
@@ -1,78 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37F7475-7D75-4B8F-BCBA-DDB8883F7D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20490" windowHeight="9735" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>JIRA ID</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AGQP-293</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AGQP-294</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AGQP-282</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AGQP-283</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AGQP-284</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/AGQP-285</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-1049</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,24 +67,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,74 +465,1084 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" customWidth="1"/>
+    <col width="31.7265625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>JIRA ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-293</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-294</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-293</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-282</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-283</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-284</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-285</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-1049</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Affected Version</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Fix Version</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Story Point</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Assignee</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Root Cause</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-293</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-294</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-293</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-282</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-283</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-284</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-285</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-1049</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Update the Affected version</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Update the fix version</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Add description</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Update the assignee Name</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Add severity</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>Add rootcause</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-293</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-294</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-293</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-282</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-283</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-284</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/AGQP-285</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://jira.jnj.com/browse/JCVZ-1049</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Update the Affected version</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Update the fix version</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Add the Story Point</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>Add description</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>Update the assignee Name</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>Add severity</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>Add rootcause</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>